--- a/medicine/Handicap/Ni_pauvre,_ni_soumis/Ni_pauvre,_ni_soumis.xlsx
+++ b/medicine/Handicap/Ni_pauvre,_ni_soumis/Ni_pauvre,_ni_soumis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ni pauvre, ni soumis est un mouvement français, fondé officiellement le 29 janvier 2008[1], fédérant des associations autour d'un pacte pour la revalorisation de l'Allocation aux adultes handicapés (AAH). Il a notamment été créé à la suite de l'engagement de Nicolas Sarkozy le 23 mars 2007 durant sa campagne présidentielle d'augmenter l'AAH de 25 % au cours de son mandat, bien que quelques semaines plus tard, le 9 juin 2007, il est annoncé que l'AAH ne serait pas revalorisée au 1er juillet 2007[1]. Son nom est une référence à Ni putes ni soumises.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ni pauvre, ni soumis est un mouvement français, fondé officiellement le 29 janvier 2008, fédérant des associations autour d'un pacte pour la revalorisation de l'Allocation aux adultes handicapés (AAH). Il a notamment été créé à la suite de l'engagement de Nicolas Sarkozy le 23 mars 2007 durant sa campagne présidentielle d'augmenter l'AAH de 25 % au cours de son mandat, bien que quelques semaines plus tard, le 9 juin 2007, il est annoncé que l'AAH ne serait pas revalorisée au 1er juillet 2007. Son nom est une référence à Ni putes ni soumises.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 29 mars 2008, une grande marche réunissant entre 16 500 et 30 000 personnes[2] fut organisée à Paris, avec le soutien de 94 associations nationales[3].
-Le collectif qui comprend cent associations entreprend d'autres manifestations au niveau national en mars 2010 alors qu'il n'a obtenu que 1,1 % sur les 25 % promis et que l'AAH est en dessous du seuil de pauvreté[4], puis en octobre de la même année[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 29 mars 2008, une grande marche réunissant entre 16 500 et 30 000 personnes fut organisée à Paris, avec le soutien de 94 associations nationales.
+Le collectif qui comprend cent associations entreprend d'autres manifestations au niveau national en mars 2010 alors qu'il n'a obtenu que 1,1 % sur les 25 % promis et que l'AAH est en dessous du seuil de pauvreté, puis en octobre de la même année.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Revendications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le collectif revendique un "revenu d'existence" (Allocation aux adultes handicapés), équivalent au SMIC environ, pour que les personnes handicapées ne soient pas condamnées à survivre très en dessous du seuil de pauvreté[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le collectif revendique un "revenu d'existence" (Allocation aux adultes handicapés), équivalent au SMIC environ, pour que les personnes handicapées ne soient pas condamnées à survivre très en dessous du seuil de pauvreté.
 </t>
         </is>
       </c>
